--- a/owlcms/src/main/resources/templates/competitionResults/Results-LETTER.xlsx
+++ b/owlcms/src/main/resources/templates/competitionResults/Results-LETTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE181898-A4C6-40D0-A14A-7170FE522E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1561C00-B8C9-4BF1-9065-A76CAEA83740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2805" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="CategoryFilter">Results!#REF!</definedName>
     <definedName name="CLUB">Results!#REF!</definedName>
     <definedName name="Collet">#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Results!$A$1:$CF$98</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Results!$A$1:$CF$86</definedName>
     <definedName name="demandé">Results!#REF!</definedName>
     <definedName name="dernier">Results!#REF!</definedName>
     <definedName name="essais">Results!#REF!</definedName>
@@ -37,7 +37,7 @@
     <definedName name="InactiveGroupFilter">Results!#REF!</definedName>
     <definedName name="isSnatch">Results!#REF!</definedName>
     <definedName name="lbParKg">Results!#REF!</definedName>
-    <definedName name="LignesCalculs">Results!$24:$24</definedName>
+    <definedName name="LignesCalculs">Results!#REF!</definedName>
     <definedName name="LignesEntête">Results!$1:$5</definedName>
     <definedName name="LignesOfficiels">Results!$16:$23</definedName>
     <definedName name="M_F">Results!#REF!</definedName>
@@ -55,7 +55,7 @@
     <definedName name="TAS">Results!#REF!</definedName>
     <definedName name="tirage">Results!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029" fullCalcOnLoad="1" iterate="1"/>
+  <calcPr calcId="181029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -69,10 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
@@ -149,21 +146,6 @@
     <t>${competition.federationWebSite}</t>
   </si>
   <si>
-    <t>${session.timeKeeper}</t>
-  </si>
-  <si>
-    <t>${session.referee1}</t>
-  </si>
-  <si>
-    <t>${session.referee2}</t>
-  </si>
-  <si>
-    <t>${session.referee3}</t>
-  </si>
-  <si>
-    <t>${session.announcer}</t>
-  </si>
-  <si>
     <t>${competition.competitionSite}</t>
   </si>
   <si>
@@ -245,30 +227,6 @@
     <t>${t.get("Results.Sinclair")}</t>
   </si>
   <si>
-    <t>${t.get("Announcer")}</t>
-  </si>
-  <si>
-    <t>${t.get("Marshall")}</t>
-  </si>
-  <si>
-    <t>${t.get("Timekeeper")}</t>
-  </si>
-  <si>
-    <t>${t.get("Results.Controller")}</t>
-  </si>
-  <si>
-    <t>${t.get("Referee1")}</t>
-  </si>
-  <si>
-    <t>${t.get("Referee2")}</t>
-  </si>
-  <si>
-    <t>${t.get("Referee3")}</t>
-  </si>
-  <si>
-    <t>${t.get("Jury")}</t>
-  </si>
-  <si>
     <t>${t.get("Results.CJ_abbrev")}</t>
   </si>
   <si>
@@ -344,18 +302,6 @@
     <t>&lt;/jx:if&gt;</t>
   </si>
   <si>
-    <t>${session.marshall} ${session.marshal2}</t>
-  </si>
-  <si>
-    <t>${t.get("JuryPresident")}</t>
-  </si>
-  <si>
-    <t>${session.jury1}</t>
-  </si>
-  <si>
-    <t>${session.jury2} ${session.jury3} ${session.jury4} ${session.jury5}</t>
-  </si>
-  <si>
     <t>${r.ageGrp} ${r.gender}</t>
   </si>
   <si>
@@ -366,9 +312,6 @@
   </si>
   <si>
     <t>${r.resAthleteName}</t>
-  </si>
-  <si>
-    <t>${session.technicalController} ${session.technicalController2}</t>
   </si>
   <si>
     <t>${l.totalRank &lt; 0 ? "inv." : (l.totalRank &gt; 0 ? l.totalRank : "" )}</t>
@@ -377,15 +320,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="181" formatCode="0.0;;"/>
-    <numFmt numFmtId="183" formatCode="_-#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="190" formatCode="0;\(0\);\-"/>
-    <numFmt numFmtId="193" formatCode="0.000;;\-"/>
-    <numFmt numFmtId="194" formatCode="0;\-;\-"/>
+    <numFmt numFmtId="164" formatCode="0.0;;"/>
+    <numFmt numFmtId="165" formatCode="_-#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="166" formatCode="0;\(0\);\-"/>
+    <numFmt numFmtId="167" formatCode="0.000;;\-"/>
+    <numFmt numFmtId="168" formatCode="0;\-;\-"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -469,12 +412,6 @@
     <font>
       <b/>
       <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -930,7 +867,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -938,281 +875,215 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="190" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="190" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="12" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="190" fontId="12" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1230,84 +1101,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="14" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="15" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="15" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1326,43 +1173,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1373,29 +1191,21 @@
     <cellStyle name="Accent4" xfId="4" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="5" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="6" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Emphase 1" xfId="7"/>
-    <cellStyle name="Emphase 2" xfId="8"/>
-    <cellStyle name="Emphase 3" xfId="9"/>
+    <cellStyle name="Emphase 1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Emphase 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Emphase 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="Lien hypertexte 2" xfId="11"/>
+    <cellStyle name="Lien hypertexte 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="12"/>
-    <cellStyle name="Normal 3" xfId="13"/>
-    <cellStyle name="Titre 1" xfId="14"/>
-    <cellStyle name="Titre 1 1" xfId="15"/>
-    <cellStyle name="Titre 1 1 1" xfId="16"/>
-    <cellStyle name="Titre de la feuille" xfId="17"/>
+    <cellStyle name="Normal 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Titre 1" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Titre 1 1" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Titre 1 1 1" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Titre de la feuille" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1880,14 +1690,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y124"/>
+  <dimension ref="A1:X112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1898,317 +1708,279 @@
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
     <col min="11" max="13" width="7.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="3" customWidth="1"/>
     <col min="16" max="18" width="7.7109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="7.7109375" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" style="1" customWidth="1"/>
     <col min="22" max="23" width="10.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="1" style="5" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="32"/>
+      <c r="J1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="33"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="36"/>
+    </row>
+    <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="50" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="5"/>
+      <c r="J2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+    </row>
+    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="J3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+    </row>
+    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="J4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="Q4"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="53"/>
+    </row>
+    <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="108"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="V6" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6"/>
+    </row>
+    <row r="7" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="56"/>
-      <c r="X1" s="24"/>
-      <c r="Y1"/>
-    </row>
-    <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="32" t="s">
+      <c r="E7" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="65" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="10"/>
-      <c r="X2" s="24"/>
-      <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="137" t="s">
-        <v>70</v>
-      </c>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="65" t="s">
+      <c r="I7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="73"/>
-      <c r="X3" s="24"/>
-      <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="32" t="s">
+      <c r="J7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="15"/>
-      <c r="X4" s="24"/>
-      <c r="Y4"/>
-    </row>
-    <row r="5" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X5" s="24"/>
-      <c r="Y5"/>
-    </row>
-    <row r="6" spans="1:25" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="14"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="146" t="s">
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2</v>
+      </c>
+      <c r="M7" s="11">
+        <v>3</v>
+      </c>
+      <c r="N7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="147"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="146" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="S6" s="144" t="s">
+      <c r="O7" s="11">
+        <v>1</v>
+      </c>
+      <c r="P7" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>3</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="107"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="103"/>
+    </row>
+    <row r="8" spans="1:24" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="1:24" s="17" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
+    </row>
+    <row r="10" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="63"/>
+      <c r="X10"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>55</v>
-      </c>
-      <c r="T6" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="U6" s="138" t="s">
-        <v>57</v>
-      </c>
-      <c r="V6" s="140" t="s">
-        <v>67</v>
-      </c>
-      <c r="W6" s="15"/>
-    </row>
-    <row r="7" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="146" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="152"/>
-      <c r="G7" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="18">
-        <v>1</v>
-      </c>
-      <c r="L7" s="18">
-        <v>2</v>
-      </c>
-      <c r="M7" s="18">
-        <v>3</v>
-      </c>
-      <c r="N7" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="18">
-        <v>1</v>
-      </c>
-      <c r="P7" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>3</v>
-      </c>
-      <c r="R7" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" s="145"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="139"/>
-      <c r="V7" s="141"/>
-    </row>
-    <row r="8" spans="1:25" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="84"/>
-    </row>
-    <row r="9" spans="1:25" s="29" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="84"/>
-    </row>
-    <row r="10" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="88"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>69</v>
       </c>
       <c r="B11"/>
       <c r="G11"/>
@@ -2227,80 +1999,79 @@
       <c r="V11"/>
       <c r="W11"/>
       <c r="X11"/>
-      <c r="Y11"/>
-    </row>
-    <row r="12" spans="1:25" s="29" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+    </row>
+    <row r="12" spans="1:24" s="17" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="27" t="s">
+      <c r="E12" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="153" t="s">
+      <c r="F12" s="98"/>
+      <c r="G12" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="154"/>
-      <c r="G12" s="76" t="s">
+      <c r="H12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="77" t="s">
+      <c r="J12" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="R12" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="36" t="s">
+      <c r="T12" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="U12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="U12" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="V12" s="31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V12" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13"/>
-      <c r="G13" s="33"/>
+      <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="K13"/>
@@ -2310,20 +2081,18 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
-      <c r="S13" s="33"/>
       <c r="T13"/>
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
       <c r="X13"/>
-      <c r="Y13"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14"/>
-      <c r="G14" s="33"/>
+      <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
       <c r="K14"/>
@@ -2333,15 +2102,13 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
-      <c r="S14" s="33"/>
       <c r="T14"/>
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14"/>
       <c r="X14"/>
-      <c r="Y14"/>
-    </row>
-    <row r="15" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="G15"/>
       <c r="H15"/>
@@ -2358,11 +2125,10 @@
       <c r="V15"/>
       <c r="W15"/>
       <c r="X15"/>
-      <c r="Y15"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B16"/>
       <c r="G16"/>
@@ -2380,700 +2146,456 @@
       <c r="V16"/>
       <c r="W16"/>
       <c r="X16"/>
-      <c r="Y16"/>
-    </row>
-    <row r="17" spans="1:25" s="90" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="90" t="s">
+    </row>
+    <row r="17" spans="1:24" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:24" s="30" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+    </row>
+    <row r="19" spans="1:24" s="76" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A19" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="73"/>
+      <c r="I19" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="74"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="68"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" s="68"/>
+      <c r="S19" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" s="74"/>
+      <c r="U19" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="V19" s="75"/>
+      <c r="X19" s="69"/>
+    </row>
+    <row r="20" spans="1:24" s="81" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="80"/>
+      <c r="M20" s="80"/>
+    </row>
+    <row r="21" spans="1:24" s="89" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="84"/>
+      <c r="I21" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="83"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="91"/>
-    </row>
-    <row r="18" spans="1:25" s="90" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-    </row>
-    <row r="19" spans="1:25" s="103" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="94" t="s">
+      <c r="R21" s="83"/>
+      <c r="S21" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="97" t="s">
+      <c r="T21" s="83"/>
+      <c r="U21" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="V21" s="84"/>
+      <c r="X21" s="84"/>
+    </row>
+    <row r="22" spans="1:24" s="89" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="78"/>
+      <c r="W22"/>
+    </row>
+    <row r="23" spans="1:24" s="89" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="99" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="100"/>
-      <c r="I19" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="101"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="O19" s="95"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="R19" s="95"/>
-      <c r="S19" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="T19" s="101"/>
-      <c r="U19" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="V19" s="102"/>
-      <c r="X19" s="96"/>
-    </row>
-    <row r="20" spans="1:25" s="108" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="107"/>
-      <c r="M20" s="107"/>
-    </row>
-    <row r="21" spans="1:25" s="116" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="113" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="136" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="111"/>
-      <c r="I21" s="135" t="s">
-        <v>85</v>
-      </c>
-      <c r="J21" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="113" t="s">
-        <v>86</v>
-      </c>
-      <c r="O21" s="110"/>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="R21" s="110"/>
-      <c r="S21" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="T21" s="110"/>
-      <c r="U21" s="115" t="s">
-        <v>89</v>
-      </c>
-      <c r="V21" s="111"/>
-      <c r="X21" s="111"/>
-    </row>
-    <row r="22" spans="1:25" s="116" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="105"/>
-      <c r="W22"/>
-    </row>
-    <row r="23" spans="1:25" s="116" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="105"/>
-    </row>
-    <row r="24" spans="1:25" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="149" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="121"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="K24" s="150"/>
-      <c r="L24" s="120"/>
-      <c r="N24" s="123"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="151" t="s">
-        <v>61</v>
-      </c>
-      <c r="R24" s="151"/>
-      <c r="S24" s="124"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="125"/>
-      <c r="V24" s="120"/>
-      <c r="W24" s="120"/>
-      <c r="X24" s="120" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="151"/>
-      <c r="R25" s="151"/>
-      <c r="S25" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="T25" s="126"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25"/>
-      <c r="X25" s="79"/>
-      <c r="Y25"/>
-    </row>
-    <row r="26" spans="1:25" s="22" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="127"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="128"/>
-      <c r="I26" s="25"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="128"/>
-      <c r="O26" s="128"/>
-      <c r="P26" s="128"/>
-      <c r="Q26" s="25"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="X26" s="128"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="131"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="150" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" s="150"/>
-      <c r="M27"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="125"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-    </row>
-    <row r="28" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="126"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-    </row>
-    <row r="29" spans="1:25" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="127"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="128"/>
-      <c r="I29" s="25"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="128"/>
-      <c r="P29" s="128"/>
-      <c r="Q29" s="25"/>
-      <c r="X29" s="128"/>
-    </row>
-    <row r="30" spans="1:25" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="131"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30"/>
-      <c r="K30" s="133"/>
-      <c r="M30"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="125"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-    </row>
-    <row r="31" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-    </row>
-    <row r="32" spans="1:25" s="22" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B32" s="25"/>
-      <c r="D32" s="128"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="134"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="128"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="128"/>
-      <c r="P32" s="128"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="78"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F33" s="2"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="2"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F35" s="2"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F36" s="2"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F37" s="2"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F38" s="2"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F39" s="2"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F40" s="2"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F41" s="2"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F42" s="2"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F43" s="2"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F44" s="2"/>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F45" s="2"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F46" s="2"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F47" s="2"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F48" s="2"/>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F49" s="2"/>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F50" s="2"/>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F51" s="2"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F52" s="2"/>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F53" s="2"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F54" s="2"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F55" s="2"/>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F56" s="2"/>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F57" s="2"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F58" s="2"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F59" s="2"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F60" s="2"/>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F61" s="2"/>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F62" s="2"/>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F63" s="2"/>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F64" s="2"/>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F65" s="2"/>
+      <c r="F65" s="1"/>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F66" s="2"/>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F67" s="2"/>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F68" s="2"/>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F69" s="2"/>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F70" s="2"/>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F71" s="2"/>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F72" s="2"/>
+      <c r="F72" s="1"/>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F73" s="2"/>
+      <c r="F73" s="1"/>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F74" s="2"/>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F75" s="2"/>
+      <c r="F75" s="1"/>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F76" s="2"/>
+      <c r="F76" s="1"/>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F77" s="2"/>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F78" s="2"/>
+      <c r="F78" s="1"/>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F79" s="2"/>
+      <c r="F79" s="1"/>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F80" s="2"/>
+      <c r="F80" s="1"/>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F81" s="2"/>
+      <c r="F81" s="1"/>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F82" s="2"/>
+      <c r="F82" s="1"/>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F83" s="2"/>
+      <c r="F83" s="1"/>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F84" s="2"/>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F85" s="2"/>
+      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F86" s="2"/>
+      <c r="F86" s="1"/>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F87" s="2"/>
+      <c r="F87" s="1"/>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F88" s="2"/>
+      <c r="F88" s="1"/>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F89" s="2"/>
+      <c r="F89" s="1"/>
     </row>
     <row r="90" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F90" s="2"/>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F91" s="2"/>
+      <c r="F91" s="1"/>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F92" s="2"/>
+      <c r="F92" s="1"/>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F93" s="2"/>
+      <c r="F93" s="1"/>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F94" s="2"/>
+      <c r="F94" s="1"/>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F95" s="2"/>
+      <c r="F95" s="1"/>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F96" s="2"/>
+      <c r="F96" s="1"/>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F97" s="2"/>
+      <c r="F97" s="1"/>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F98" s="2"/>
+      <c r="F98" s="1"/>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F99" s="2"/>
+      <c r="F99" s="1"/>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F100" s="2"/>
+      <c r="F100" s="1"/>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F101" s="2"/>
+      <c r="F101" s="1"/>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F102" s="2"/>
+      <c r="F102" s="1"/>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F103" s="2"/>
+      <c r="F103" s="1"/>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F104" s="2"/>
+      <c r="F104" s="1"/>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F105" s="2"/>
+      <c r="F105" s="1"/>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F106" s="2"/>
+      <c r="F106" s="1"/>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F107" s="2"/>
+      <c r="F107" s="1"/>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F108" s="2"/>
+      <c r="F108" s="1"/>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F109" s="2"/>
+      <c r="F109" s="1"/>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F110" s="2"/>
+      <c r="F110" s="1"/>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F111" s="2"/>
+      <c r="F111" s="1"/>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F115" s="2"/>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F116" s="2"/>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F122" s="2"/>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F124" s="2"/>
+      <c r="F112" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="Q24:R25"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E12:F12"/>
+  <mergeCells count="9">
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="V6:V7"/>
@@ -3081,64 +2603,59 @@
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
-  <conditionalFormatting sqref="D13:F13 D12:E12">
-    <cfRule type="expression" dxfId="7" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="C8:D8">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:D9">
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:D20">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:E12 D13:F13">
+    <cfRule type="expression" dxfId="2" priority="15" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F14">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D8">
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D8">
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:F18">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:D20">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:D20">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation showErrorMessage="1" sqref="K4 F28 C28 C25 S25 L25 F25 L28 C31 F31"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H12"/>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H13:H18 G24">
+    <dataValidation showErrorMessage="1" sqref="K4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H12" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H13:H18" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I9 H20">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I9 H20" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="www.federation.org"/>
-    <hyperlink ref="A4" r:id="rId2" display="records@federation.org"/>
+    <hyperlink ref="A3" r:id="rId1" display="www.federation.org" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" display="records@federation.org" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.31496062992125984" right="0.35433070866141736" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageMargins left="0.31496062992125984" right="0.35433070866141736" top="0.39370078740157483" bottom="0.47244094488188981" header="0.51181102362204722" footer="0.23622047244094491"/>
   <pageSetup scale="65" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/owlcms/src/main/resources/templates/competitionResults/Results-LETTER.xlsx
+++ b/owlcms/src/main/resources/templates/competitionResults/Results-LETTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottgonzalez/Projects/Misc/owlcms4/owlcms/src/main/resources/templates/competitionResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1561C00-B8C9-4BF1-9065-A76CAEA83740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B2F68A-3137-C242-B66E-F6AA08AE2C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
@@ -134,9 +134,6 @@
     <t>${competition.competitionOrganizer}</t>
   </si>
   <si>
-    <t>${session.name}</t>
-  </si>
-  <si>
     <t>${competition.federation}</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
   </si>
   <si>
     <t xml:space="preserve">${t.get("Competition.competitionOrganizer")} : </t>
-  </si>
-  <si>
-    <t>${t.get("Group")} :</t>
   </si>
   <si>
     <t>${t.get("LastName")}</t>
@@ -1131,10 +1125,46 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1145,42 +1175,6 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1696,37 +1690,35 @@
   </sheetPr>
   <dimension ref="A1:X112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="7.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="3" customWidth="1"/>
-    <col min="16" max="18" width="7.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="1" customWidth="1"/>
-    <col min="22" max="23" width="10.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
+    <col min="11" max="13" width="7.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="3" customWidth="1"/>
+    <col min="16" max="18" width="7.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" customWidth="1"/>
+    <col min="20" max="20" width="8.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.1640625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="10.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="30"/>
@@ -1735,7 +1727,7 @@
       <c r="F1" s="30"/>
       <c r="G1" s="32"/>
       <c r="J1" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>18</v>
@@ -1754,15 +1746,15 @@
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="5"/>
       <c r="J2" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="40"/>
       <c r="M2" s="41"/>
@@ -1771,7 +1763,7 @@
       <c r="P2" s="43"/>
       <c r="Q2" s="44"/>
       <c r="R2" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="45" t="s">
         <v>19</v>
@@ -1779,25 +1771,25 @@
       <c r="T2" s="46"/>
       <c r="U2" s="46"/>
     </row>
-    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="48"/>
       <c r="J3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
+        <v>31</v>
+      </c>
+      <c r="K3" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="49"/>
       <c r="R3" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S3" s="50" t="s">
         <v>20</v>
@@ -1806,20 +1798,16 @@
       <c r="U3" s="51"/>
       <c r="V3" s="52"/>
     </row>
-    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="47"/>
       <c r="C4" s="29"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="J4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="9"/>
       <c r="L4"/>
       <c r="M4" s="3"/>
       <c r="N4" s="1"/>
@@ -1828,71 +1816,71 @@
       <c r="R4" s="20"/>
       <c r="S4" s="53"/>
     </row>
-    <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="C6" s="9"/>
       <c r="H6" s="8"/>
       <c r="I6" s="10"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="95" t="s">
+      <c r="K6" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="105"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6"/>
+    </row>
+    <row r="7" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="108"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="95" t="s">
+      <c r="B7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" s="104" t="s">
-        <v>50</v>
-      </c>
-      <c r="U6" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="V6" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="X6"/>
-    </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="D7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="106"/>
+      <c r="G7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="H7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="K7" s="11">
         <v>1</v>
@@ -1904,7 +1892,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O7" s="11">
         <v>1</v>
@@ -1916,16 +1904,16 @@
         <v>3</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" s="107"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="103"/>
-    </row>
-    <row r="8" spans="1:24" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="S7" s="103"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="99"/>
+    </row>
+    <row r="8" spans="1:24" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
@@ -1938,7 +1926,7 @@
       <c r="J8" s="58"/>
       <c r="K8" s="59"/>
     </row>
-    <row r="9" spans="1:24" s="17" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="17" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57"/>
       <c r="B9" s="57"/>
       <c r="C9" s="57"/>
@@ -1951,9 +1939,9 @@
       <c r="J9" s="58"/>
       <c r="K9" s="59"/>
     </row>
-    <row r="10" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="61"/>
       <c r="C10" s="62"/>
@@ -1978,9 +1966,9 @@
       <c r="V10" s="63"/>
       <c r="X10"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11"/>
       <c r="G11"/>
@@ -2000,12 +1988,12 @@
       <c r="W11"/>
       <c r="X11"/>
     </row>
-    <row r="12" spans="1:24" s="17" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" s="17" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>1</v>
@@ -2013,10 +2001,10 @@
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="98"/>
+      <c r="F12" s="108"/>
       <c r="G12" s="55" t="s">
         <v>5</v>
       </c>
@@ -2027,7 +2015,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>11</v>
@@ -2057,16 +2045,16 @@
         <v>7</v>
       </c>
       <c r="T12" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U12" s="19" t="s">
         <v>8</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2087,7 +2075,7 @@
       <c r="W13"/>
       <c r="X13"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2108,7 +2096,7 @@
       <c r="W14"/>
       <c r="X14"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15"/>
       <c r="G15"/>
       <c r="H15"/>
@@ -2126,9 +2114,9 @@
       <c r="W15"/>
       <c r="X15"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16"/>
       <c r="G16"/>
@@ -2147,13 +2135,13 @@
       <c r="W16"/>
       <c r="X16"/>
     </row>
-    <row r="17" spans="1:24" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J17" s="31"/>
     </row>
-    <row r="18" spans="1:24" s="30" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" s="30" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="65"/>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -2177,56 +2165,56 @@
       <c r="U18" s="66"/>
       <c r="V18" s="66"/>
     </row>
-    <row r="19" spans="1:24" s="76" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" s="76" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" s="67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="68"/>
       <c r="C19" s="69"/>
       <c r="D19" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="72" t="s">
         <v>61</v>
-      </c>
-      <c r="E19" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="72" t="s">
-        <v>63</v>
       </c>
       <c r="H19" s="73"/>
       <c r="I19" s="70" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J19" s="67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K19" s="74"/>
       <c r="L19" s="68"/>
       <c r="M19" s="69"/>
       <c r="N19" s="67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O19" s="68"/>
       <c r="P19" s="75"/>
       <c r="Q19" s="67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R19" s="68"/>
       <c r="S19" s="67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T19" s="74"/>
       <c r="U19" s="67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V19" s="75"/>
       <c r="X19" s="69"/>
     </row>
-    <row r="20" spans="1:24" s="81" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" s="81" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
@@ -2240,54 +2228,54 @@
       <c r="K20" s="80"/>
       <c r="M20" s="80"/>
     </row>
-    <row r="21" spans="1:24" s="89" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" s="89" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B21" s="83"/>
       <c r="C21" s="84"/>
       <c r="D21" s="85" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="86" t="s">
         <v>77</v>
-      </c>
-      <c r="F21" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="86" t="s">
-        <v>79</v>
       </c>
       <c r="H21" s="84"/>
       <c r="I21" s="93" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J21" s="86" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K21" s="83"/>
       <c r="L21" s="83"/>
       <c r="M21" s="84"/>
       <c r="N21" s="86" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O21" s="83"/>
       <c r="P21" s="84"/>
       <c r="Q21" s="82" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R21" s="83"/>
       <c r="S21" s="87" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T21" s="83"/>
       <c r="U21" s="88" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V21" s="84"/>
       <c r="X21" s="84"/>
     </row>
-    <row r="22" spans="1:24" s="89" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" s="89" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="89" t="s">
         <v>0</v>
       </c>
@@ -2307,9 +2295,9 @@
       <c r="O22" s="78"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:24" s="89" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" s="89" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="89" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="78"/>
       <c r="C23" s="78"/>
@@ -2326,276 +2314,278 @@
       <c r="N23" s="92"/>
       <c r="O23" s="78"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F112" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="9">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="V6:V7"/>
@@ -2603,8 +2593,6 @@
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:D8">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
